--- a/DugganPhilpLarsen BOM CC3501.xlsx
+++ b/DugganPhilpLarsen BOM CC3501.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc493369\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc259190\Desktop\CC3501-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B861F8A-91B6-45E8-B3B8-0E0E4B40686C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABA20E-357C-40C4-A945-B48B23CF4186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +592,7 @@
     <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
     <col min="6" max="6" width="25.26953125" customWidth="1"/>
     <col min="7" max="7" width="41.54296875" customWidth="1"/>
     <col min="8" max="8" width="57.81640625" customWidth="1"/>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="3"/>

--- a/DugganPhilpLarsen BOM CC3501.xlsx
+++ b/DugganPhilpLarsen BOM CC3501.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc259190\Desktop\CC3501-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphil\Downloads\CC3501-Assignment-master (1)\CC3501-Assignment-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABA20E-357C-40C4-A945-B48B23CF4186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389C0C6-205F-422B-9575-7AE9057C0FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Part</t>
   </si>
@@ -45,12 +53,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
@@ -72,24 +74,12 @@
     <t>Capacitor 1uF</t>
   </si>
   <si>
-    <t>1uF</t>
-  </si>
-  <si>
     <t>Capacitor 2.2nF 50V</t>
   </si>
   <si>
-    <t>06035C222KAT2A</t>
-  </si>
-  <si>
     <t>Resistor 10k</t>
   </si>
   <si>
-    <t>10k Ohms</t>
-  </si>
-  <si>
-    <t>4.7k Ohms</t>
-  </si>
-  <si>
     <t>Resistor 4.7k</t>
   </si>
   <si>
@@ -102,12 +92,6 @@
     <t>Resistor 0</t>
   </si>
   <si>
-    <t>Resistor 33</t>
-  </si>
-  <si>
-    <t>ITG-3200</t>
-  </si>
-  <si>
     <t>Gyroscope</t>
   </si>
   <si>
@@ -120,9 +104,6 @@
     <t>Accelerometer/Magnetometer</t>
   </si>
   <si>
-    <t>68021-210HLF</t>
-  </si>
-  <si>
     <t>MK22FN512VLH12</t>
   </si>
   <si>
@@ -147,43 +128,76 @@
     <t xml:space="preserve">Element14 </t>
   </si>
   <si>
-    <t>1858279 https://au.element14.com/invensense/itg-3200/mems-sensor-output-digital/dp/1858279?gclid=EAIaIQobChMI8_2jlfXx6wIVIcEWBR2jsAYTEAQYASABEgLiNfD_BwE&amp;mckv=s_dc|pcrid|432287894049|pkw||pmt||slid||product|1858279|pgrid|102205442564|ptaid|pla-900340835440|&amp;CMP=KNC-GAU-GEN-SHOPPING-SEMICONDUCTOR-ICS</t>
-  </si>
-  <si>
-    <t>2467817 https://au.element14.com/abracon/abm3b-8-000mhz-10-1-u-t/crystal-8mhz-10pf-5-x-3-2mm/dp/2467817?st=8%20mhz</t>
-  </si>
-  <si>
-    <t>2377757 https://au.element14.com/nxp/fxos8700cqr1/accelerometers-magnetometer-qfn/dp/2377757?st=fxos8700cqr1</t>
-  </si>
-  <si>
-    <t>2434224 https://au.element14.com/nxp/mk22fn512vlh12/mcu-32bit-cortex-m4-120mhz-lqfp/dp/2434224?st=mk22</t>
-  </si>
-  <si>
     <t>Battery Holder</t>
   </si>
   <si>
     <t>Coin Cell Holder SM</t>
   </si>
   <si>
-    <t>2775806 https://au.element14.com/te-connectivity/796136-1/assy-smt-battery-conn/dp/2775806?ost=796136-1</t>
-  </si>
-  <si>
     <t>Resistor 1M</t>
   </si>
   <si>
-    <t>1M Ohms</t>
-  </si>
-  <si>
-    <t>0 Ohm Resistor</t>
-  </si>
-  <si>
-    <t>33 Ohm Resistor</t>
-  </si>
-  <si>
     <t>Capacitor 22pF</t>
   </si>
   <si>
-    <t>22pF</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>L3GD20H</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/stmicroelectronics/l3gd20h/3-axis-gyroscope-digital-lga-16/dp/243308001?st=L3GD20H</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/nxp/fxos8700cqr1/accelerometers-magnetometer-qfn/dp/2377757?st=fxos8700cqr1</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/nxp/mk22fn512vlh12/mcu-32bit-cortex-m4-120mhz-lqfp/dp/2434224?st=mk22</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/abracon/abm3b-8-000mhz-10-1-u-t/crystal-8mhz-10pf-5-x-3-2mm/dp/2467817?st=8%20mhz</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/te-connectivity/796136-1/assy-smt-battery-conn/dp/2775806?ost=796136-1</t>
+  </si>
+  <si>
+    <t>100nF chip</t>
+  </si>
+  <si>
+    <t>06035C222KAT2A 2.2nF chip</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>1M Ohms THD</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/on-semiconductor/mc33269dt-3-3g/ic-ldo-regulator-0-8a-20v-to252/dp/1652330?st=3.3v%20voltage%20regulator%20d2pak_n</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>3.3V 800mA out</t>
+  </si>
+  <si>
+    <t>1uF chip 0805</t>
+  </si>
+  <si>
+    <t>10nF chip 0805</t>
+  </si>
+  <si>
+    <t>4.7k Ohms chip 0805</t>
+  </si>
+  <si>
+    <t>10k Ohms chip 0805</t>
+  </si>
+  <si>
+    <t>0 Ohm Resistor chip 0805</t>
+  </si>
+  <si>
+    <t>22pF chip 0805</t>
   </si>
 </sst>
 </file>
@@ -193,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +231,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,11 +309,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -299,8 +322,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -580,33 +605,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="25.26953125" customWidth="1"/>
-    <col min="7" max="7" width="41.54296875" customWidth="1"/>
-    <col min="8" max="8" width="57.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" customWidth="1"/>
-    <col min="11" max="11" width="25.81640625" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
-    <col min="15" max="15" width="39.54296875" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -614,21 +639,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -638,26 +665,26 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F13" si="0">E2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G12" si="0">F2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -667,28 +694,28 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -698,28 +725,28 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -729,28 +756,28 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -760,28 +787,28 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -791,28 +818,28 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -822,28 +849,28 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -853,28 +880,28 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -884,28 +911,28 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -916,28 +943,32 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>243308001</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>6.34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -948,30 +979,32 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6">
-        <v>25.81</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2377757</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>25.81</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>5.44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -982,30 +1015,28 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2.72</v>
-      </c>
-      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>5.44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="G13" s="6">
+        <f>F13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1016,28 +1047,32 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2434224</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12.51</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="5">
-        <f>E14*D14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="G14" s="6">
+        <f t="shared" ref="G14:G20" si="1">F14*E14</f>
+        <v>25.02</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1048,30 +1083,28 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12.51</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:F17" si="1">E15*D15</f>
-        <v>25.02</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1082,28 +1115,32 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2467817</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>3.48</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1114,30 +1151,32 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2775806</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5">
-        <v>1.74</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>3.48</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>9.32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1148,30 +1187,28 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4.66</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18" si="2">E18*D18</f>
-        <v>9.32</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1182,28 +1219,28 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19:F20" si="3">E19*D19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1214,28 +1251,32 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1652330</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" ref="G20" si="2">F20*E20</f>
+        <v>2.54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1246,20 +1287,20 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="6">
-        <f>SUM(F6:F20)</f>
-        <v>69.069999999999993</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6">
+        <f>SUM(G7:G20)</f>
+        <v>52.139999999999993</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1270,7 +1311,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1289,7 +1330,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1308,7 +1349,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1327,7 +1368,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1346,7 +1387,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1365,7 +1406,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1384,7 +1425,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1403,7 +1444,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1422,7 +1463,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1441,7 +1482,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1460,7 +1501,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1479,28 +1520,17 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{C330E8B7-E43D-4E0F-9239-01E60F7443A5}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{DC5F975C-D305-42AD-852A-43DF8E237256}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{FEC5473F-0309-4CAA-A71B-1F8FFD1AB285}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{FCE7F9B5-FE37-46BB-88CD-CE52A47FEBF2}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{D313A58C-01CB-4A8E-AFBA-23F97D1EAFA0}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{8C77FB4B-9DE9-41DD-979C-D441B133765A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DugganPhilpLarsen BOM CC3501.xlsx
+++ b/DugganPhilpLarsen BOM CC3501.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphil\Downloads\CC3501-Assignment-master (1)\CC3501-Assignment-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphil\OneDrive\Desktop\New folder\CC3501-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389C0C6-205F-422B-9575-7AE9057C0FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6F4DD-C164-432A-BADB-1F19BA9D2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Resistor 4.7k</t>
   </si>
   <si>
-    <t>MBR120VLSFT1G Schottky Rectifier, 20V, 1A</t>
-  </si>
-  <si>
     <t>Diode</t>
   </si>
   <si>
@@ -161,12 +158,6 @@
     <t>https://au.element14.com/te-connectivity/796136-1/assy-smt-battery-conn/dp/2775806?ost=796136-1</t>
   </si>
   <si>
-    <t>100nF chip</t>
-  </si>
-  <si>
-    <t>06035C222KAT2A 2.2nF chip</t>
-  </si>
-  <si>
     <t>Headers</t>
   </si>
   <si>
@@ -182,22 +173,31 @@
     <t>3.3V 800mA out</t>
   </si>
   <si>
-    <t>1uF chip 0805</t>
-  </si>
-  <si>
-    <t>10nF chip 0805</t>
-  </si>
-  <si>
-    <t>4.7k Ohms chip 0805</t>
-  </si>
-  <si>
-    <t>10k Ohms chip 0805</t>
-  </si>
-  <si>
-    <t>0 Ohm Resistor chip 0805</t>
-  </si>
-  <si>
-    <t>22pF chip 0805</t>
+    <t>100nF chip 1206</t>
+  </si>
+  <si>
+    <t>10nF chip 1206</t>
+  </si>
+  <si>
+    <t>1uF chip 1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2nF chip 1206</t>
+  </si>
+  <si>
+    <t>10k Ohms chip 1206</t>
+  </si>
+  <si>
+    <t>4.7k Ohms chip 1206</t>
+  </si>
+  <si>
+    <t>MBR120VLSFT1G Schottky Rectifier, 20V, 1A THD</t>
+  </si>
+  <si>
+    <t>0 Ohm Resistor chip 1206</t>
+  </si>
+  <si>
+    <t>22pF chip 1206</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="9" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -945,16 +945,16 @@
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>243308001</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6">
         <v>3.17</v>
@@ -967,7 +967,7 @@
         <v>6.34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -981,16 +981,16 @@
     </row>
     <row r="12" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>2377757</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6">
         <v>2.72</v>
@@ -1003,7 +1003,7 @@
         <v>5.44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="13" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1049,16 +1049,16 @@
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>2434224</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6">
         <v>12.51</v>
@@ -1067,11 +1067,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" ref="G14:G20" si="1">F14*E14</f>
+        <f t="shared" ref="G14:G19" si="1">F14*E14</f>
         <v>25.02</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>2467817</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6">
         <v>1.74</v>
@@ -1139,7 +1139,7 @@
         <v>3.48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>2775806</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6">
         <v>4.66</v>
@@ -1175,7 +1175,7 @@
         <v>9.32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1253,16 +1253,16 @@
     </row>
     <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>1652330</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6">
         <v>1.27</v>
@@ -1275,7 +1275,7 @@
         <v>2.54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>

--- a/DugganPhilpLarsen BOM CC3501.xlsx
+++ b/DugganPhilpLarsen BOM CC3501.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphil\OneDrive\Desktop\New folder\CC3501-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0f176aa6e24afd6/Engineering/2020 Semester 2/CC3501/CC3501-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6F4DD-C164-432A-BADB-1F19BA9D2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9AC6F4DD-C164-432A-BADB-1F19BA9D2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FFE7991-7254-46AA-8D1F-47512091D18F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1485" windowWidth="20445" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="57.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" customWidth="1"/>

--- a/DugganPhilpLarsen BOM CC3501.xlsx
+++ b/DugganPhilpLarsen BOM CC3501.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0f176aa6e24afd6/Engineering/2020 Semester 2/CC3501/CC3501-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9AC6F4DD-C164-432A-BADB-1F19BA9D2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FFE7991-7254-46AA-8D1F-47512091D18F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9AC6F4DD-C164-432A-BADB-1F19BA9D2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08CC5818-7641-4555-8CC7-36B25406C923}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1485" windowWidth="20445" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="885" windowWidth="20445" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Capacitor 1uF</t>
   </si>
   <si>
-    <t>Capacitor 2.2nF 50V</t>
-  </si>
-  <si>
     <t>Resistor 10k</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>22pF chip 1206</t>
+  </si>
+  <si>
+    <t>Capacitor 22pF 50V</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -820,7 +820,7 @@
     </row>
     <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="8" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="9" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -945,16 +945,16 @@
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>243308001</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6">
         <v>3.17</v>
@@ -967,7 +967,7 @@
         <v>6.34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -981,16 +981,16 @@
     </row>
     <row r="12" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>2377757</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="6">
         <v>2.72</v>
@@ -1003,7 +1003,7 @@
         <v>5.44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="13" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1049,16 +1049,16 @@
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>2434224</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6">
         <v>12.51</v>
@@ -1071,7 +1071,7 @@
         <v>25.02</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="16" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>2467817</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6">
         <v>1.74</v>
@@ -1139,7 +1139,7 @@
         <v>3.48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>2775806</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6">
         <v>4.66</v>
@@ -1175,7 +1175,7 @@
         <v>9.32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1253,16 +1253,16 @@
     </row>
     <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>1652330</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="6">
         <v>1.27</v>
@@ -1275,7 +1275,7 @@
         <v>2.54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
